--- a/wynik.xlsx
+++ b/wynik.xlsx
@@ -1,55 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04. Studia\NAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pejot-my.sharepoint.com/personal/s23538_pjwstk_edu_pl/Documents/01. STUDIA/01. semestry/5 semestr 5/01. NAI/02. Ćwiczenia/NAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68580FFE-1EF5-4ABC-B74F-513A4420026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B585F3-4C29-4A07-BD1F-5600032271FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{6AF1FD90-E841-4E6E-8CE6-6463CAA0A63B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4F6B80FF-1C18-4FDA-8009-150ED0633C4D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="13">
   <si>
-    <t>czas</t>
+    <t>--------------------------------</t>
   </si>
   <si>
-    <t>wynik</t>
+    <t>Booth:</t>
+  </si>
+  <si>
+    <t>duration:</t>
+  </si>
+  <si>
+    <t>Matyas:</t>
+  </si>
+  <si>
+    <t>TreeHumpCamel:</t>
+  </si>
+  <si>
+    <t>avg result</t>
+  </si>
+  <si>
+    <t>avg time</t>
+  </si>
+  <si>
+    <t>booth</t>
+  </si>
+  <si>
+    <t>matyas</t>
+  </si>
+  <si>
+    <t>treeHumpCamel</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -81,20 +104,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -112,7 +136,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -124,34 +148,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>styblinski</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -165,7 +161,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -184,270 +180,155 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$A$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>czas</c:v>
+                  <c:v>precision</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Arkusz1!$B$1:$B$21</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Arkusz1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$I$2:$I$4</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-2,90353</c:v>
+                  <c:v>booth</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2,90354</c:v>
+                  <c:v>matyas</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2,90353</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2,90353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2,90353</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2,90353</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2,90353</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2,90354</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2,90354</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2,90354</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2,90353</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2,90353</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2,90355</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2,90353</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2,90353</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2,90353</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2,90354</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2,90353</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2,90353</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2,90354</c:v>
+                  <c:v>treeHumpCamel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Arkusz1!$A$2:$A$21</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Arkusz1!$A$3:$A$21</c:f>
+              <c:f>Sheet1!$J$2:$J$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.72437</c:v>
+                  <c:v>0.46905943200000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7075499999999999</c:v>
+                  <c:v>3.5249887999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7094100000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7098500000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7108699999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7930299999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7406999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.77037</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7460599999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.71916</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.71234</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7104699999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.71838</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.70767</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.7276899999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.73167</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.7149099999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.70964</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7099200000000001</c:v>
+                  <c:v>4.5280634E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9BD9-4649-8694-738FBE45DEA0}"/>
+              <c16:uniqueId val="{00000000-C1EC-42F7-AE41-0932A66683DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$2:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>booth</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>matyas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>treeHumpCamel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.24034335000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24404390000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36668070000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C1EC-42F7-AE41-0932A66683DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="877245120"/>
-        <c:axId val="877248864"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1092357583"/>
+        <c:axId val="1221938207"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="877245120"/>
+        <c:axId val="1092357583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +340,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -490,7 +371,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877248864"/>
+        <c:crossAx val="1221938207"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -498,7 +379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="877248864"/>
+        <c:axId val="1221938207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,7 +399,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -549,7 +430,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877245120"/>
+        <c:crossAx val="1092357583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -677,7 +558,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -688,7 +569,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -701,7 +582,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -718,7 +599,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -734,7 +615,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -778,20 +659,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -800,13 +681,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -818,10 +699,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -830,17 +711,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -944,8 +824,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1035,20 +921,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1061,17 +947,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1103,7 +978,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1112,13 +987,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1172,8 +1048,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1182,23 +1064,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>610913</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>2006</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>157655</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Wykres 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3387EB-111E-B5C4-3462-EE5D30D3933E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5071AC-1836-431D-8B26-004355B64EB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,20 +1102,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B70531A0-2D6D-4293-9852-1DA89832AED7}" name="Tabela2" displayName="Tabela2" ref="A1:B21" totalsRowShown="0">
-  <autoFilter ref="A1:B21" xr:uid="{B70531A0-2D6D-4293-9852-1DA89832AED7}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{ED97A10F-4AB5-46F2-BA75-05F1B3EF06BA}" name="czas" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{71F28C94-21E1-4290-98BD-AA0B701B2023}" name="wynik" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80919CA6-ED30-42A9-B38B-01A58078BEC3}" name="Table1" displayName="Table1" ref="I1:K4" totalsRowShown="0">
+  <autoFilter ref="I1:K4" xr:uid="{C83E42C8-FFAC-45C5-83AC-B3827C02956B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{99685FFD-73A3-4065-AC87-9643D3D31156}" name="*"/>
+    <tableColumn id="2" xr3:uid="{466A5514-C221-434B-A89A-C805BD329D3D}" name="precision" dataDxfId="1">
+      <calculatedColumnFormula>F21</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{68C8F5C1-B2E9-4764-A9F4-AFD42489C4D7}" name="time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1271,7 +1156,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1377,7 +1262,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1526,191 +1411,949 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D176FE0-0F59-489C-AD15-E40793DA3470}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3633B27E-5A9E-4D2A-AB82-D19299A9B89C}">
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>8.02904E-6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>247258</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.2538E-3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>242688</v>
+      </c>
+      <c r="F2" s="1">
+        <f>AVERAGE(B1:B20)*1000</f>
+        <v>0.46905943200000011</v>
+      </c>
+      <c r="G2" s="1">
+        <f>AVERAGE(D1:D20)/1000000</f>
+        <v>0.24034335000000001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <f>F2</f>
+        <v>0.46905943200000011</v>
+      </c>
+      <c r="K2" s="1">
+        <f>G2</f>
+        <v>0.24034335000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.8522300000000001E-4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>243698</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1">
+        <f>F22</f>
+        <v>3.5249887999999993E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <f>G22</f>
+        <v>0.24404390000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8.4436899999999998E-4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>241280</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1">
+        <f>F43</f>
+        <v>4.5280634E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <f>G43</f>
+        <v>0.36668070000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.9570200000000001E-4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>242665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.1363900000000001E-4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>261353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.5154200000000001E-4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>240126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.3967100000000003E-4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>237197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8.2113100000000001E-4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>235257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.7612099999999999E-4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>237257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5.2032599999999999E-4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>235522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7.8214599999999995E-5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>238507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.8534600000000002E-4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>237699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.10104E-4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>236391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.0687299999999999E-3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>236406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.9888600000000001E-4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>238324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6.3291499999999995E-4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>239190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.0579000000000001E-3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>240179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.2398600000000001E-4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>238768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4.15554E-4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>237102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1.7162999999999999</v>
-      </c>
-      <c r="B2" s="1">
-        <v>-2.9035299999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1.72437</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-2.90354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1.7075499999999999</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-2.9035299999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1.7094100000000001</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-2.9035299999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1.7098500000000001</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-2.9035299999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1.7108699999999999</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-2.9035299999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1.7930299999999999</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-2.9035299999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1.7406999999999999</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-2.90354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1.77037</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2.90354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1.7460599999999999</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-2.90354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1.71916</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-2.9035299999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1.71234</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-2.9035299999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1.7104699999999999</v>
-      </c>
-      <c r="B14" s="1">
-        <v>-2.9035500000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1.71838</v>
-      </c>
-      <c r="B15" s="1">
-        <v>-2.9035299999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1.70767</v>
-      </c>
-      <c r="B16" s="1">
-        <v>-2.9035299999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>1.7276899999999999</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-2.9035299999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1.73167</v>
-      </c>
-      <c r="B18" s="1">
-        <v>-2.90354</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>1.7149099999999999</v>
-      </c>
-      <c r="B19" s="1">
-        <v>-2.9035299999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1.70964</v>
-      </c>
-      <c r="B20" s="1">
-        <v>-2.9035299999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>1.7099200000000001</v>
-      </c>
-      <c r="B21" s="1">
-        <v>-2.90354</v>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.6154E-6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>247781</v>
+      </c>
+      <c r="F22" s="1">
+        <f>AVERAGE(B22:B41)*1000</f>
+        <v>3.5249887999999993E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <f>AVERAGE(D22:D41)/1000000</f>
+        <v>0.24404390000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.0211200000000001E-5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>243680</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.97925E-5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>243613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6.3686299999999994E-5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>245669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2">
+        <v>8.1611899999999997E-5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>242333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.1653000000000001E-5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>242565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.482E-4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>247006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4.7587999999999999E-5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>244174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3.9393800000000002E-5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>243072</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.5772799999999999E-5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>242045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2">
+        <v>7.66887E-6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>243499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2">
+        <v>6.7378500000000002E-6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>244941</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2.38002E-5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>242395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6.9310100000000006E-5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>243438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2">
+        <v>7.8178100000000006E-6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>244868</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.25424E-5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>243425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6.3367400000000006E-5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>242427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2">
+        <v>7.4515200000000003E-6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>243427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4.4730100000000001E-6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>245048</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3.1303700000000003E-5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>245472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3.1263600000000003E-5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>347313</v>
+      </c>
+      <c r="F43" s="1">
+        <f>AVERAGE(B43:B62)*1000</f>
+        <v>4.5280634E-2</v>
+      </c>
+      <c r="G43" s="1">
+        <f>AVERAGE(D43:D62)/1000000</f>
+        <v>0.36668070000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2.4136000000000001E-5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>350599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>354167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3.0661399999999998E-5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>349871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5.2692299999999997E-5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3">
+        <v>352483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2.071E-5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>365078</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2">
+        <v>7.06409E-6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3">
+        <v>357468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3.1942700000000002E-5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>351573</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3.6064099999999999E-5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>351049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2">
+        <v>8.7277900000000007E-6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>346216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2">
+        <v>8.2596700000000002E-5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>358313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4.5211599999999999E-5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>350514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2.5916300000000001E-5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>350913</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4.1109699999999997E-5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>359798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1.24652E-4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3">
+        <v>432331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2">
+        <v>7.5624999999999995E-5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>446950</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1.7960599999999999E-4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="3">
+        <v>392001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2">
+        <v>4.4449500000000002E-5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3">
+        <v>356276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1.66665E-5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3">
+        <v>380995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1.4017400000000001E-5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3">
+        <v>379706</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
